--- a/src/GameDesign/Weapons.xlsx
+++ b/src/GameDesign/Weapons.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="757" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="757" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponMatMod" sheetId="14" r:id="rId1"/>
     <sheet name="WeaponStatusMod" sheetId="6" r:id="rId2"/>
     <sheet name="Swords" sheetId="7" r:id="rId3"/>
-    <sheet name="Clubs" sheetId="10" r:id="rId4"/>
-    <sheet name="Axes" sheetId="9" r:id="rId5"/>
-    <sheet name="Shields" sheetId="13" r:id="rId6"/>
-    <sheet name="Bows" sheetId="12" r:id="rId7"/>
+    <sheet name="Axes" sheetId="15" r:id="rId4"/>
+    <sheet name="Maces" sheetId="10" r:id="rId5"/>
+    <sheet name="Polearms" sheetId="17" r:id="rId6"/>
+    <sheet name="Ranged" sheetId="16" r:id="rId7"/>
     <sheet name="Staffs" sheetId="11" r:id="rId8"/>
+    <sheet name="Shields" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="104">
   <si>
     <t>description</t>
   </si>
@@ -97,9 +98,6 @@
     <t>maxMp</t>
   </si>
   <si>
-    <t>broadsword</t>
-  </si>
-  <si>
     <t>weapon</t>
   </si>
   <si>
@@ -133,9 +131,6 @@
     <t>scimitar</t>
   </si>
   <si>
-    <t>Flamberge</t>
-  </si>
-  <si>
     <t>1-hand 2-hand</t>
   </si>
   <si>
@@ -203,6 +198,147 @@
   </si>
   <si>
     <t>a greatsword</t>
+  </si>
+  <si>
+    <t>scythe</t>
+  </si>
+  <si>
+    <t>war axe</t>
+  </si>
+  <si>
+    <t>great axe</t>
+  </si>
+  <si>
+    <t>hatchet</t>
+  </si>
+  <si>
+    <t>broad axe</t>
+  </si>
+  <si>
+    <t>cleaver</t>
+  </si>
+  <si>
+    <t>battle axe</t>
+  </si>
+  <si>
+    <t>halberd</t>
+  </si>
+  <si>
+    <t>poleaxe</t>
+  </si>
+  <si>
+    <t>pike</t>
+  </si>
+  <si>
+    <t>spear</t>
+  </si>
+  <si>
+    <t>rod</t>
+  </si>
+  <si>
+    <t>glaive</t>
+  </si>
+  <si>
+    <t>trident</t>
+  </si>
+  <si>
+    <t>partisane</t>
+  </si>
+  <si>
+    <t>bo</t>
+  </si>
+  <si>
+    <t>greatstaff</t>
+  </si>
+  <si>
+    <t>wand</t>
+  </si>
+  <si>
+    <t>baton</t>
+  </si>
+  <si>
+    <t>crook</t>
+  </si>
+  <si>
+    <t>cane</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>war hammer</t>
+  </si>
+  <si>
+    <t>sceptre</t>
+  </si>
+  <si>
+    <t>mallet</t>
+  </si>
+  <si>
+    <t>maul</t>
+  </si>
+  <si>
+    <t>mace</t>
+  </si>
+  <si>
+    <t>battle hammer</t>
+  </si>
+  <si>
+    <t>shortbow</t>
+  </si>
+  <si>
+    <t>longbow</t>
+  </si>
+  <si>
+    <t>composite bow</t>
+  </si>
+  <si>
+    <t>crossbow</t>
+  </si>
+  <si>
+    <t>arbalest</t>
+  </si>
+  <si>
+    <t>reflex bow</t>
+  </si>
+  <si>
+    <t>shuriken</t>
+  </si>
+  <si>
+    <t>round shield</t>
+  </si>
+  <si>
+    <t>buckler</t>
+  </si>
+  <si>
+    <t>battle shield</t>
+  </si>
+  <si>
+    <t>tower shield</t>
+  </si>
+  <si>
+    <t>a cleaver</t>
+  </si>
+  <si>
+    <t>a broad axe</t>
+  </si>
+  <si>
+    <t>a scythe</t>
+  </si>
+  <si>
+    <t>a war axe</t>
+  </si>
+  <si>
+    <t>a great axe</t>
+  </si>
+  <si>
+    <t>a battle axe</t>
+  </si>
+  <si>
+    <t>a hatchet</t>
   </si>
 </sst>
 </file>
@@ -212,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +369,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -273,6 +416,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -578,15 +753,15 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -597,7 +772,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -608,7 +783,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -619,7 +794,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -630,7 +805,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
@@ -641,7 +816,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -652,7 +827,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>
@@ -663,7 +838,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
@@ -772,287 +947,360 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="51.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="15" width="9" customWidth="1"/>
+    <col min="16" max="17" width="8.5703125" customWidth="1"/>
+    <col min="18" max="18" width="34.28515625" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" customWidth="1"/>
+    <col min="24" max="24" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14">
+        <v>25</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="18">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="18">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="18">
+        <v>20</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14">
+        <v>40</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="18">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="18">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="18">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="K3" s="11"/>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="18">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="18">
+        <v>16</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="R4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18">
+        <v>7</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="18">
+        <v>23</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="18">
+        <v>16</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="18">
+        <v>14</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14">
+        <v>60</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="18">
+        <v>11</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="18">
+        <v>9</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="18">
+        <v>26</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="6">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="B8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="18">
+        <v>20</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="18">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="6">
-        <v>35</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K8" s="11"/>
+      <c r="R8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6">
-        <v>60</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>26</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="6">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1062,10 +1310,1484 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="18" max="18" width="34.28515625" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" customWidth="1"/>
+    <col min="24" max="24" width="51.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14">
+        <v>20</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="18">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="18">
+        <v>14</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="18">
+        <v>17</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="18">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="18">
+        <v>7</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="18">
+        <v>30</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="18">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="18">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="18">
+        <v>19</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14">
+        <v>40</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="18">
+        <v>23</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14">
+        <v>70</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="18">
+        <v>9</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="18">
+        <v>25</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14">
+        <v>80</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="18">
+        <v>14</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="18">
+        <v>5</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="18">
+        <v>35</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14">
+        <v>55</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="18">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="18">
+        <v>12</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="18">
+        <v>21</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L1:R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14">
+        <v>25</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="18">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="18">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="18">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14">
+        <v>40</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="18">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="18">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="18">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="18">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="18">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18">
+        <v>7</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="18">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="18">
+        <v>16</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="18">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14">
+        <v>60</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="18">
+        <v>11</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="18">
+        <v>9</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="18">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="18">
+        <v>20</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="18">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="16"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="16"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="16"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="16"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="15" width="9" customWidth="1"/>
+    <col min="16" max="17" width="8.5703125" customWidth="1"/>
+    <col min="18" max="18" width="34.28515625" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" customWidth="1"/>
+    <col min="24" max="24" width="51.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14">
+        <v>25</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="18">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="18">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="18">
+        <v>20</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14">
+        <v>40</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="18">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="18">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="18">
+        <v>30</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="18">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="18">
+        <v>16</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="R4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18">
+        <v>7</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="18">
+        <v>23</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="18">
+        <v>16</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="18">
+        <v>14</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14">
+        <v>60</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="18">
+        <v>11</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="18">
+        <v>9</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="18">
+        <v>26</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="18">
+        <v>20</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="18">
+        <v>10</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="R8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14">
+        <v>25</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="18">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="18">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="18">
+        <v>20</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14">
+        <v>40</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="18">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="18">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="18">
+        <v>30</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="18">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="18">
+        <v>16</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="R4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18">
+        <v>7</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="18">
+        <v>23</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="18">
+        <v>16</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="18">
+        <v>14</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14">
+        <v>60</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="18">
+        <v>11</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="18">
+        <v>9</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="18">
+        <v>26</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="18">
+        <v>20</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="18">
+        <v>10</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="R8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D12" s="16"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D13" s="16"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D14" s="16"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D15" s="16"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,19 +2828,19 @@
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>17</v>
@@ -1144,10 +2866,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="6">
         <v>27</v>
@@ -1192,42 +2914,42 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1236,12 +2958,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,19 +3004,19 @@
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>17</v>
@@ -1320,10 +3042,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="6">
         <v>27</v>
@@ -1368,550 +3090,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="17" width="51.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="17" width="51.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="17" width="51.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
